--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,20 +19,218 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>台中市梧棲鎮南簡段10330001地號</t>
+  </si>
+  <si>
+    <t>台中市梧棲鎮南簡段10320000地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08280038地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08260043地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08260023地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08240021地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08210073地號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段08270054地號</t>
+  </si>
+  <si>
+    <t>台中市梧棲鎮梧棲段02010000地號</t>
+  </si>
+  <si>
+    <t>台中市梧棲鎮大庄段大庄小段00140041地號</t>
+  </si>
+  <si>
+    <t>台中市梧樓鎮大庄段大庄小段00140054地號</t>
+  </si>
+  <si>
+    <t>台中市大雅鄉永興段08400007地號</t>
+  </si>
+  <si>
+    <t>台中市大雅鄉大明段08050000地號</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>楊瓊瓔</t>
+  </si>
+  <si>
+    <t>楊填壤</t>
+  </si>
+  <si>
+    <t>楊麵</t>
+  </si>
+  <si>
+    <t>楊覆瘦</t>
+  </si>
+  <si>
+    <t>76年10月30日</t>
+  </si>
+  <si>
+    <t>76年09月10日</t>
+  </si>
+  <si>
+    <t>78年05月01日</t>
+  </si>
+  <si>
+    <t>78年05月01曰</t>
+  </si>
+  <si>
+    <t>74年03月20日</t>
+  </si>
+  <si>
+    <t>88年10月21日</t>
+  </si>
+  <si>
+    <t>94年02月23日</t>
+  </si>
+  <si>
+    <t>94年02月23曰</t>
+  </si>
+  <si>
+    <t>94年08月24日</t>
+  </si>
+  <si>
+    <t>96年03月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>3295824</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-27</t>
+  </si>
+  <si>
+    <t>tmpd1401</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>標</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>面積（平方</t>
+  </si>
+  <si>
+    <t>權利範圍</t>
   </si>
   <si>
     <t>所有權人</t>
   </si>
   <si>
+    <t>台中市清水鎮康榔段00003000建號</t>
+  </si>
+  <si>
+    <t>台中市清水鎮康榔段00104000建號</t>
+  </si>
+  <si>
+    <t>台中市大雅鄉永興段00676000建號</t>
+  </si>
+  <si>
+    <t>台中市大雅鄉大明段00138000建號</t>
+  </si>
+  <si>
+    <t>.楊瓊瓔</t>
+  </si>
+  <si>
+    <t>74年03月19日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
@@ -42,166 +240,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>台中市梧棲鎮南簡段1033-0001 地號</t>
-  </si>
-  <si>
-    <t>台中市梧棲鎮南簡段1032-0000 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0828-0038 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0826-0043 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0826-0023 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0824-0021 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0821-0073 地號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段0827-0054 地號</t>
-  </si>
-  <si>
-    <t>台中市梧棲鎮梧棲段0201-0000 地號</t>
-  </si>
-  <si>
-    <t>台中市梧棲鎮大庄段大庄小段 0014-0041 地號</t>
-  </si>
-  <si>
-    <t>台中市梧樓鎮大庄段大庄小段 0014-0054 地號</t>
-  </si>
-  <si>
-    <t>台中市大雅鄉永興段0840-0007 地號'</t>
-  </si>
-  <si>
-    <t>台中市大雅鄉大明段0805-0000 地號</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>楊瓊瓔</t>
-  </si>
-  <si>
-    <t>楊填壤</t>
-  </si>
-  <si>
-    <t>楊麵</t>
-  </si>
-  <si>
-    <t>楊覆瘦</t>
-  </si>
-  <si>
-    <t>76年10月 30日</t>
-  </si>
-  <si>
-    <t>76年09月 10日</t>
-  </si>
-  <si>
-    <t>78年05月 01日</t>
-  </si>
-  <si>
-    <t>78年05月 01曰</t>
-  </si>
-  <si>
-    <t>74年03月 20日</t>
-  </si>
-  <si>
-    <t>88年10月 21日</t>
-  </si>
-  <si>
-    <t>94年02月 23日</t>
-  </si>
-  <si>
-    <t>94年02月 23曰</t>
-  </si>
-  <si>
-    <t>94年08月， 24日</t>
-  </si>
-  <si>
-    <t>96年03月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣.</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>3,295,824</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段00003-000 建號</t>
-  </si>
-  <si>
-    <t>台中市清水鎮康榔段00104-000 建號</t>
-  </si>
-  <si>
-    <t>台中市大雅鄉永興段00676-000 建號</t>
-  </si>
-  <si>
-    <t>台中市大雅鄉大明段00138-000 建號</t>
-  </si>
-  <si>
-    <t>.楊瓊瓔</t>
-  </si>
-  <si>
-    <t>74年03月 19日</t>
-  </si>
-  <si>
-    <t>94年08月 24日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>BENZ S350</t>
-  </si>
-  <si>
-    <t>100 年 02 月25曰</t>
+    <t>BENZS350</t>
+  </si>
+  <si>
+    <t>100年02月25曰</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -249,22 +291,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -650,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,343 +720,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>743</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>854</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>854</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>854</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>854</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>854</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>854</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>854</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="2">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>854</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>854</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>196.18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1032,25 +1368,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1058,25 +1394,25 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>354.75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1084,25 +1420,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>294.69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1110,25 +1446,25 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
         <v>189.57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1136,22 +1472,22 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2">
         <v>754.92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2">
         <v>1665100</v>
@@ -1172,22 +1508,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1195,19 +1531,19 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
@@ -1228,19 +1564,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1248,16 +1584,16 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2000000</v>
@@ -1268,16 +1604,16 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>2000000</v>
@@ -1288,16 +1624,16 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>830939</v>
@@ -1308,16 +1644,16 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>215952</v>
@@ -1338,22 +1674,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1361,14 +1697,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1378,22 +1714,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1411,13 +1747,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1425,13 +1761,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1439,13 +1775,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>台中市梧棲鎮南簡段10330001地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>台中市梧棲鎮南簡段10320000地號</t>
@@ -123,9 +126,6 @@
     <t>楊覆瘦</t>
   </si>
   <si>
-    <t>76年10月30日</t>
-  </si>
-  <si>
     <t>76年09月10日</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>96年03月19日</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>買賣.</t>
   </si>
   <si>
@@ -180,27 +180,6 @@
     <t>tmpd1401</t>
   </si>
   <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>標</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方</t>
-  </si>
-  <si>
-    <t>權利範圍</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
     <t>台中市清水鎮康榔段00003000建號</t>
   </si>
   <si>
@@ -222,106 +201,52 @@
     <t>第一次登記</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>BENZS350</t>
+  </si>
+  <si>
+    <t>100年02月25曰</t>
+  </si>
+  <si>
+    <t>台中商業銀行台中港分行</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行台中港分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>BENZS350</t>
-  </si>
-  <si>
-    <t>100年02月25曰</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>台中商業銀行台中港分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行台中港分行</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -692,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,25 +666,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>743</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>44</v>
@@ -777,7 +708,7 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>854</v>
@@ -786,27 +717,33 @@
         <v>52</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.6666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>45</v>
@@ -824,7 +761,7 @@
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>854</v>
@@ -833,30 +770,36 @@
         <v>52</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>47</v>
@@ -871,7 +814,7 @@
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>854</v>
@@ -880,30 +823,36 @@
         <v>52</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.66666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>47</v>
@@ -918,7 +867,7 @@
         <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>854</v>
@@ -927,27 +876,33 @@
         <v>52</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>45</v>
@@ -965,7 +920,7 @@
         <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>854</v>
@@ -974,30 +929,36 @@
         <v>52</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>47</v>
@@ -1012,7 +973,7 @@
         <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>854</v>
@@ -1021,30 +982,36 @@
         <v>52</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>47</v>
@@ -1059,7 +1026,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>854</v>
@@ -1068,27 +1035,33 @@
         <v>52</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>7</v>
+        <v>740</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>44</v>
@@ -1106,7 +1079,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>854</v>
@@ -1115,27 +1088,33 @@
         <v>52</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>740</v>
+        <v>1552</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>45</v>
@@ -1153,7 +1132,7 @@
         <v>51</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>854</v>
@@ -1162,30 +1141,36 @@
         <v>52</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1552</v>
+        <v>635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>47</v>
@@ -1200,7 +1185,7 @@
         <v>51</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>854</v>
@@ -1209,30 +1194,36 @@
         <v>52</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>635</v>
+        <v>65.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>47</v>
@@ -1247,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>854</v>
@@ -1256,33 +1247,39 @@
         <v>52</v>
       </c>
       <c r="O12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>65.9</v>
+        <v>196.18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>49</v>
@@ -1294,7 +1291,7 @@
         <v>51</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
         <v>854</v>
@@ -1303,54 +1300,13 @@
         <v>52</v>
       </c>
       <c r="O13" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>196.18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="2">
-        <v>854</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="2">
-        <v>25</v>
+      <c r="P13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>98.09</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1370,46 +1326,46 @@
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
+      <c r="C1" s="1">
+        <v>354.75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
-        <v>354.75</v>
+        <v>294.69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>47</v>
@@ -1417,25 +1373,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
-        <v>294.69</v>
+        <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>47</v>
@@ -1443,53 +1399,27 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
-        <v>189.57</v>
+        <v>754.92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>754.92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H4" s="2">
         <v>1665100</v>
       </c>
     </row>
@@ -1499,6 +1429,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3498</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4720100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>830939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>215952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1513,223 +1566,34 @@
       <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4720100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2">
-        <v>830939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>215952</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1747,41 +1611,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>台中市梧棲鎮南簡段10330001地號</t>
+  </si>
+  <si>
     <t>台中市梧棲鎮南簡段10320000地號</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>楊覆瘦</t>
   </si>
   <si>
+    <t>76年10月30日</t>
+  </si>
+  <si>
     <t>76年09月10日</t>
   </si>
   <si>
@@ -153,10 +159,10 @@
     <t>96年03月19日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
   </si>
   <si>
     <t>買賣.</t>
@@ -617,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,637 +681,690 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>35</v>
+        <v>743</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>854</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.6666666666667</v>
+        <v>247.666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>854</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.666666666666667</v>
+        <v>11.6666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>854</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.66666666666667</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>854</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q5" s="2">
-        <v>24</v>
+        <v>2.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>854</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q6" s="2">
-        <v>8.66666666666667</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>854</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="2">
-        <v>22</v>
+        <v>8.66666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>854</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q8" s="2">
-        <v>2.33333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>740</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>854</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>740</v>
+        <v>2.33333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1552</v>
+        <v>740</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>854</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>776</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>635</v>
+        <v>1552</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>854</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2">
         <v>0.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>317.5</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>65.9</v>
+        <v>635</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2">
         <v>854</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" s="2">
-        <v>65.9</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>196.18</v>
+        <v>65.9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2">
         <v>854</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="2">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>65.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>196.18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="2">
+      <c r="K14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>854</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="2">
         <v>25</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>98.09</v>
       </c>
     </row>
@@ -1316,111 +1375,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2">
+        <v>354.75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1">
-        <v>354.75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>854</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>118.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2">
         <v>294.69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2">
-        <v>189.57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>854</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
-        <v>754.92</v>
+        <v>189.57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>854</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="2">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>189.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2">
+        <v>754.92</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2">
         <v>1665100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>854</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="2">
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>377.46</v>
       </c>
     </row>
   </sheetData>
@@ -1429,129 +1649,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4720100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>830939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
-        <v>215952</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1561,39 +1658,222 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3498</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4720100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4720100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2">
+        <v>830939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>215952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1611,27 +1891,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>第一次登記</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>BENZS350</t>
@@ -1650,38 +1653,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1">
-        <v>3498</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4720100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1690,13 +1714,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>4720100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>854</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1714,13 +1759,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1734,13 +1779,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1754,13 +1799,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1774,13 +1819,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1794,13 +1839,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1824,14 +1869,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1841,16 +1886,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1858,22 +1903,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +1936,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1905,10 +1950,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1919,13 +1964,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -207,6 +207,9 @@
     <t>第一次登記</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
   </si>
   <si>
     <t>100年02月25曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台中商業銀行台中港分行</t>
@@ -1460,7 +1466,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>52</v>
@@ -1513,7 +1519,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>52</v>
@@ -1566,7 +1572,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>52</v>
@@ -1619,7 +1625,7 @@
         <v>1665100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>52</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1705,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>3498</v>
@@ -1714,7 +1720,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
@@ -1723,7 +1729,7 @@
         <v>4720100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>52</v>
@@ -1759,13 +1765,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1779,13 +1785,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1799,13 +1805,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1819,13 +1825,13 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1839,13 +1845,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1869,14 +1875,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1886,16 +1892,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1903,22 +1909,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +1942,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1950,10 +1956,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1964,13 +1970,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -222,19 +222,31 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台中商業銀行台中港分行</t>
   </si>
   <si>
+    <t>臺灣銀行台中港分行</t>
+  </si>
+  <si>
     <t>定期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行台中港分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及事</t>
@@ -1757,13 +1769,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1774,24 +1786,45 @@
         <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1799,19 +1832,40 @@
       <c r="F2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>854</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1819,19 +1873,40 @@
       <c r="F3" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>854</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1839,25 +1914,67 @@
       <c r="F4" s="2">
         <v>830939</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>854</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>215952</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>854</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1875,14 +1992,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1892,16 +2009,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1909,22 +2026,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1942,10 +2059,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1956,10 +2073,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -1970,13 +2087,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -11,15 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -247,33 +246,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -1984,73 +1956,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,10 +1964,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2073,10 +1978,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -2087,13 +1992,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
+++ b/legislator/property/output/normal/楊瓊瓔_2011-12-27_財產申報表_tmpd1401.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -248,6 +248,9 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>楊瓊壤</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1956,49 +1962,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>854</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2">
+        <v>854</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
